--- a/Test Cases for Nykaa Fashion Products.xlsx
+++ b/Test Cases for Nykaa Fashion Products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>Project Name</t>
   </si>
@@ -270,7 +270,7 @@
     <t>TC_007</t>
   </si>
   <si>
-    <t>Verify Stress Handling</t>
+    <t>Verify Stress Handling under high load.</t>
   </si>
   <si>
     <t>User has access to the application.</t>
@@ -368,6 +368,26 @@
   </si>
   <si>
     <t>The item was removed, and the total updated correctly.</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Check for proper session management.</t>
+  </si>
+  <si>
+    <t>User logged into the application.</t>
+  </si>
+  <si>
+    <t>"1. Log in. 
+2. Close the browser. 
+3. Reopen and navigate to the website</t>
+  </si>
+  <si>
+    <t>User should not be logged in automatically.</t>
+  </si>
+  <si>
+    <t>User was not logged in upon reopening.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +532,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -521,10 +541,10 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -533,7 +553,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1207,33 @@
       </c>
     </row>
     <row r="19">
-      <c r="I19" s="4"/>
+      <c r="A19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20">
       <c r="I20" s="4"/>
